--- a/configTools/Luban/ConfigRoot/Datas/language.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/language.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="11925" tabRatio="599" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="language" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'language'!$A$4:$R$1883</definedName>
@@ -1017,8 +1017,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -39391,10 +39391,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="Q5:R5 Q6:Q734 Q736:Q1359 Q1360 Q1361:Q1805 R6:R1359 R1360 R1361:R1805" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="Q5:R5 Q6:Q734 Q736:Q1359 Q1360 Q1361:Q1805 R6:R1359 R1360 R1361:R1805" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"无需修改,修改,待定(存在分歧),有问题(颜色代码、语句不通)"</formula1>
     </dataValidation>
-    <dataValidation sqref="A1:A1218 A1220:A1293 A1305:A1359 A1360 A1361:A1428 A1431:A1452 A1460:A1731 A1735:A1748 A1762:A1048576 G1357 M1357:P1357" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
+    <dataValidation sqref="A1:A1218 A1220:A1293 A1305:A1359 A1360 A1361:A1428 A1431:A1452 A1460:A1731 A1735:A1748 A1762:A1048576 G1357 M1357:P1357" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
